--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -154,10 +154,6 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1663,16 +1659,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1680,10 +1676,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1694,28 +1690,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1765,13 +1761,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1794,10 +1790,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1808,25 +1804,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1877,19 +1873,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1906,10 +1902,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1920,28 +1916,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1991,19 +1987,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2020,10 +2016,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2034,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2046,16 +2042,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2081,43 +2077,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2134,21 +2130,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2160,16 +2156,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2219,28 +2215,28 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2248,14 +2244,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2274,16 +2270,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2333,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2354,7 +2350,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2362,14 +2358,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2388,16 +2384,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2447,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2459,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2468,7 +2464,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2476,14 +2472,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2496,25 +2492,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2563,7 +2559,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2575,7 +2571,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2584,7 +2580,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2592,14 +2588,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2615,22 +2611,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2679,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2691,31 +2687,31 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2734,19 +2730,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2795,7 +2791,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2807,16 +2803,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2824,10 +2820,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2835,34 +2831,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2887,95 +2883,95 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3001,29 +2997,29 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3035,27 +3031,27 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3066,7 +3062,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3078,13 +3074,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3135,28 +3131,28 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3164,14 +3160,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3190,16 +3186,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3237,19 +3233,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3261,7 +3257,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3270,7 +3266,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3278,10 +3274,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3301,22 +3297,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3365,7 +3361,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3377,16 +3373,16 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3394,10 +3390,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3408,7 +3404,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3420,13 +3416,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3477,28 +3473,28 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3506,14 +3502,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3532,16 +3528,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3579,19 +3575,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3603,7 +3599,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3612,7 +3608,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3620,10 +3616,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3634,31 +3630,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3707,28 +3703,28 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3736,10 +3732,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3750,28 +3746,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3821,28 +3817,28 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3850,10 +3846,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3864,29 +3860,29 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -3935,28 +3931,28 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3964,10 +3960,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3978,29 +3974,29 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4049,28 +4045,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4078,10 +4074,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4092,31 +4088,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4165,28 +4161,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4194,10 +4190,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4208,31 +4204,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4281,28 +4277,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4310,44 +4306,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="D25" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4358,7 +4354,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4373,11 +4369,11 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4395,7 +4391,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4407,27 +4403,27 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4438,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4450,13 +4446,13 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4507,28 +4503,28 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4536,14 +4532,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4562,16 +4558,16 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4609,19 +4605,19 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4633,7 +4629,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -4642,7 +4638,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4650,10 +4646,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4673,22 +4669,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4737,7 +4733,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4749,16 +4745,16 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4766,10 +4762,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4780,7 +4776,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4792,13 +4788,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4849,28 +4845,28 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4878,14 +4874,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4904,16 +4900,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4951,19 +4947,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AC30" t="s" s="2">
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4975,7 +4971,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4984,7 +4980,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4992,10 +4988,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5006,31 +5002,31 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5079,28 +5075,28 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5108,10 +5104,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5122,28 +5118,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5193,28 +5189,28 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5222,10 +5218,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5236,29 +5232,29 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5307,28 +5303,28 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5336,10 +5332,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5350,29 +5346,29 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5421,28 +5417,28 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5450,10 +5446,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5464,31 +5460,31 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5537,28 +5533,28 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5566,10 +5562,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5580,31 +5576,31 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5653,28 +5649,28 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5682,42 +5678,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5743,96 +5739,96 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -5881,74 +5877,74 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K39" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5997,74 +5993,74 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6113,74 +6109,74 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6229,43 +6225,43 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6275,28 +6271,28 @@
         <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6345,7 +6341,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6357,31 +6353,31 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6391,28 +6387,28 @@
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6461,7 +6457,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6473,27 +6469,27 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6516,19 +6512,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6577,7 +6573,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6589,16 +6585,16 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6606,14 +6602,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6632,19 +6628,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6693,7 +6689,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6705,16 +6701,16 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6722,10 +6718,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6739,7 +6735,7 @@
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>41</v>
@@ -6748,16 +6744,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6807,7 +6803,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6819,7 +6815,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -6828,7 +6824,7 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6836,14 +6832,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6859,22 +6855,22 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -6923,7 +6919,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6935,16 +6931,16 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6952,10 +6948,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6966,7 +6962,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -6978,13 +6974,13 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7035,28 +7031,28 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7064,14 +7060,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7090,16 +7086,16 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7149,7 +7145,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7161,7 +7157,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -7170,7 +7166,7 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7178,14 +7174,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7198,25 +7194,25 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7265,7 +7261,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7277,7 +7273,7 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -7286,7 +7282,7 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7294,10 +7290,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7308,7 +7304,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -7320,19 +7316,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7381,19 +7377,19 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -7402,7 +7398,7 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7410,10 +7406,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7421,28 +7417,28 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7493,19 +7489,19 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -7514,7 +7510,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7522,25 +7518,25 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7548,19 +7544,19 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7609,28 +7605,28 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7638,10 +7634,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7655,7 +7651,7 @@
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>41</v>
@@ -7664,16 +7660,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7699,11 +7695,11 @@
         <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -7721,7 +7717,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7733,16 +7729,16 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7750,10 +7746,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7767,7 +7763,7 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>41</v>
@@ -7776,19 +7772,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7837,7 +7833,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7849,16 +7845,16 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
